--- a/parameterization/change_information.xlsx
+++ b/parameterization/change_information.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{89B06D9C-B64F-4547-BF57-6DC65F723A71}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B249281-82E5-4A9D-A9A8-04F3701407C4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,10 +170,6 @@
     <t>测试5</t>
   </si>
   <si>
-    <t>372930199212220421</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>台湾居民来往内地通行证</t>
   </si>
   <si>
@@ -213,6 +209,9 @@
   <si>
     <t>12455</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41142519720828083X</t>
   </si>
 </sst>
 </file>
@@ -552,7 +551,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -616,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -640,7 +639,7 @@
         <v>37</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -655,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -688,7 +687,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -697,7 +696,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -718,7 +717,7 @@
         <v>37</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -726,7 +725,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -735,7 +734,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -785,7 +784,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
@@ -794,12 +793,12 @@
         <v>37</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
@@ -837,7 +836,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
@@ -875,13 +874,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>

--- a/parameterization/change_information.xlsx
+++ b/parameterization/change_information.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B249281-82E5-4A9D-A9A8-04F3701407C4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20BEACFB-552B-4E2F-AC89-5EA386620FEA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -179,9 +179,6 @@
     <t>测试7</t>
   </si>
   <si>
-    <t>测试8</t>
-  </si>
-  <si>
     <t>123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,25 +190,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0530-1111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮编格式错误，请重新输入</t>
+  </si>
+  <si>
+    <t>12455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41142519720828083X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>固定电话格式错误，请重新输入</t>
-  </si>
-  <si>
-    <t>0530-1111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮编格式错误，请重新输入</t>
-  </si>
-  <si>
-    <t>12455</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41142519720828083X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#informationIndex &gt; form &gt; div:nth-child(1) &gt; div &gt; div.el-card__body &gt; div &gt; table &gt; tr:nth-child(3) &gt; td:nth-child(2) &gt; div &gt; div &gt; span.tips-SFZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -548,25 +559,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.9140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
-    <col min="6" max="10" width="8.6640625" style="1"/>
-    <col min="11" max="11" width="17.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,28 +595,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -615,35 +618,26 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -654,35 +648,26 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -696,31 +681,22 @@
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -734,31 +710,22 @@
         <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -775,28 +742,19 @@
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -813,28 +771,19 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -851,36 +800,27 @@
         <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
@@ -889,64 +829,91 @@
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="1234567@qq.com" xr:uid="{A40BB748-122A-4A28-9106-909DE4EEF34E}"/>
-    <hyperlink ref="D8" r:id="rId2" display="1234567@qq.com" xr:uid="{48E0D60C-BFD3-4B24-BA1E-E81FCB43B54A}"/>
-    <hyperlink ref="D7:D13" r:id="rId3" display="1234567@qq.com" xr:uid="{92D6A64D-4AA7-4F1B-AD09-A5DEF17155B9}"/>
-    <hyperlink ref="D9" r:id="rId4" display="1234567@qq.com" xr:uid="{76E2D297-814C-402D-9805-CD5DEF690BEA}"/>
-    <hyperlink ref="D3" r:id="rId5" xr:uid="{0F04FD20-B2E2-467A-90D9-A8A59DEE1C8D}"/>
-    <hyperlink ref="D6" r:id="rId6" display="1234567@qq.com" xr:uid="{DEAD20DD-4F45-47CD-B684-048FF280CE81}"/>
+    <hyperlink ref="D6:D13" r:id="rId1" display="1234567@qq.com" xr:uid="{92D6A64D-4AA7-4F1B-AD09-A5DEF17155B9}"/>
+    <hyperlink ref="D2" r:id="rId2" display="1234567@qq.com" xr:uid="{A40BB748-122A-4A28-9106-909DE4EEF34E}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{0F04FD20-B2E2-467A-90D9-A8A59DEE1C8D}"/>
+    <hyperlink ref="D6" r:id="rId4" display="1234567@qq.com" xr:uid="{DEAD20DD-4F45-47CD-B684-048FF280CE81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874E69A9-D4C8-4652-80D6-95715AEF555E}">
-  <dimension ref="A2:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="A4" sqref="A4:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -961,22 +928,23 @@
         <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="M2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="1234567@qq.com" xr:uid="{3019BF53-0F87-4670-95AC-B246294452FF}"/>
+    <hyperlink ref="D2" r:id="rId1" display="1234567@qq.com" xr:uid="{83CA8B94-46DE-4F01-A43E-5A826632CB76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/parameterization/change_information.xlsx
+++ b/parameterization/change_information.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20BEACFB-552B-4E2F-AC89-5EA386620FEA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57E9D41E-CAFB-4F13-9F0A-E21D79262146}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -223,6 +223,37 @@
   <si>
     <t>#informationIndex &gt; form &gt; div:nth-child(1) &gt; div &gt; div.el-card__body &gt; div &gt; table &gt; tr:nth-child(3) &gt; td:nth-child(2) &gt; div &gt; div &gt; span.tips-SFZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#informationIndex &gt; form &gt; div:nth-child(1) &gt; div &gt; div.el-card__body &gt; div &gt; table &gt; tr:nth-child(3) &gt; td:nth-child(4) &gt; div &gt; div &gt; span.tips-SFZ</t>
+  </si>
+  <si>
+    <t>birthday_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1993-01-01</t>
+  </si>
+  <si>
+    <t>1993-01-02</t>
+  </si>
+  <si>
+    <t>1993-01-03</t>
+  </si>
+  <si>
+    <t>1993-01-04</t>
+  </si>
+  <si>
+    <t>1993-01-05</t>
+  </si>
+  <si>
+    <t>1993-01-06</t>
+  </si>
+  <si>
+    <t>1993-01-07</t>
+  </si>
+  <si>
+    <t>1992-06-12</t>
   </si>
 </sst>
 </file>
@@ -559,298 +590,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.9140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="1"/>
+    <col min="1" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.9140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D6:D13" r:id="rId1" display="1234567@qq.com" xr:uid="{92D6A64D-4AA7-4F1B-AD09-A5DEF17155B9}"/>
-    <hyperlink ref="D2" r:id="rId2" display="1234567@qq.com" xr:uid="{A40BB748-122A-4A28-9106-909DE4EEF34E}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{0F04FD20-B2E2-467A-90D9-A8A59DEE1C8D}"/>
-    <hyperlink ref="D6" r:id="rId4" display="1234567@qq.com" xr:uid="{DEAD20DD-4F45-47CD-B684-048FF280CE81}"/>
+    <hyperlink ref="E8:E13" r:id="rId1" display="1234567@qq.com" xr:uid="{92D6A64D-4AA7-4F1B-AD09-A5DEF17155B9}"/>
+    <hyperlink ref="E6:E7" r:id="rId2" display="1234567@qq.com" xr:uid="{E8065467-F94D-48ED-83F5-18A663A9D8F1}"/>
+    <hyperlink ref="E2" r:id="rId3" display="1234567@qq.com" xr:uid="{A40BB748-122A-4A28-9106-909DE4EEF34E}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{0F04FD20-B2E2-467A-90D9-A8A59DEE1C8D}"/>
+    <hyperlink ref="E6" r:id="rId5" display="1234567@qq.com" xr:uid="{DEAD20DD-4F45-47CD-B684-048FF280CE81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/parameterization/change_information.xlsx
+++ b/parameterization/change_information.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57E9D41E-CAFB-4F13-9F0A-E21D79262146}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{56B07213-91E2-4D3B-A32F-B73CD40021A5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,51 +209,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>自动化测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#informationIndex &gt; form &gt; div:nth-child(1) &gt; div &gt; div.el-card__body &gt; div &gt; table &gt; tr:nth-child(3) &gt; td:nth-child(2) &gt; div &gt; div &gt; span.tips-SFZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#informationIndex &gt; form &gt; div:nth-child(1) &gt; div &gt; div.el-card__body &gt; div &gt; table &gt; tr:nth-child(3) &gt; td:nth-child(4) &gt; div &gt; div &gt; span.tips-SFZ</t>
+  </si>
+  <si>
+    <t>birthday_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1993-01-01</t>
+  </si>
+  <si>
+    <t>1993-01-02</t>
+  </si>
+  <si>
+    <t>1993-01-03</t>
+  </si>
+  <si>
+    <t>1993-01-04</t>
+  </si>
+  <si>
+    <t>1993-01-05</t>
+  </si>
+  <si>
+    <t>1993-01-06</t>
+  </si>
+  <si>
+    <t>1993-01-07</t>
+  </si>
+  <si>
+    <t>1992-06-12</t>
+  </si>
+  <si>
     <t>固定电话格式错误，请重新输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#informationIndex &gt; form &gt; div:nth-child(1) &gt; div &gt; div.el-card__body &gt; div &gt; table &gt; tr:nth-child(3) &gt; td:nth-child(2) &gt; div &gt; div &gt; span.tips-SFZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#informationIndex &gt; form &gt; div:nth-child(1) &gt; div &gt; div.el-card__body &gt; div &gt; table &gt; tr:nth-child(3) &gt; td:nth-child(4) &gt; div &gt; div &gt; span.tips-SFZ</t>
-  </si>
-  <si>
-    <t>birthday_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1993-01-01</t>
-  </si>
-  <si>
-    <t>1993-01-02</t>
-  </si>
-  <si>
-    <t>1993-01-03</t>
-  </si>
-  <si>
-    <t>1993-01-04</t>
-  </si>
-  <si>
-    <t>1993-01-05</t>
-  </si>
-  <si>
-    <t>1993-01-06</t>
-  </si>
-  <si>
-    <t>1993-01-07</t>
-  </si>
-  <si>
-    <t>1992-06-12</t>
   </si>
 </sst>
 </file>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -646,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
@@ -664,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>44</v>
@@ -679,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>21</v>
@@ -712,7 +712,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>40</v>
@@ -736,7 +736,7 @@
         <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -744,7 +744,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>40</v>
@@ -776,7 +776,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
@@ -808,7 +808,7 @@
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
@@ -840,7 +840,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>25</v>
@@ -858,10 +858,10 @@
         <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>19</v>
@@ -869,10 +869,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
